--- a/facture agilité.xlsx
+++ b/facture agilité.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeremie.laera\Desktop\EPSI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeremie.laera\Desktop\EPSI\facture agilité\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="984" yWindow="0" windowWidth="17256" windowHeight="5772"/>
+    <workbookView xWindow="1968" yWindow="0" windowWidth="17256" windowHeight="5772"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>ID</t>
   </si>
@@ -38,29 +38,32 @@
     <t>Quantité</t>
   </si>
   <si>
+    <t>PTX</t>
+  </si>
+  <si>
+    <t>MTX</t>
+  </si>
+  <si>
+    <t>QDS</t>
+  </si>
+  <si>
+    <t>MDS</t>
+  </si>
+  <si>
+    <t>PF</t>
+  </si>
+  <si>
+    <t>Clou</t>
+  </si>
+  <si>
+    <t>Version 1</t>
+  </si>
+  <si>
+    <t>MTTC</t>
+  </si>
+  <si>
     <t>Montant
- Total</t>
-  </si>
-  <si>
-    <t>PTX</t>
-  </si>
-  <si>
-    <t>MTX</t>
-  </si>
-  <si>
-    <t>QDS</t>
-  </si>
-  <si>
-    <t>MDS</t>
-  </si>
-  <si>
-    <t>PF</t>
-  </si>
-  <si>
-    <t>Clou</t>
-  </si>
-  <si>
-    <t>Version 1</t>
+ Total (MTL)</t>
   </si>
 </sst>
 </file>
@@ -76,7 +79,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -89,8 +92,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -98,16 +107,108 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -388,66 +489,157 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="6"/>
+      <c r="B2" s="7">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="E2" s="7">
+        <v>1</v>
+      </c>
+      <c r="F2" s="8">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="6"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="6"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="6"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="F6" s="8"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="6"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="F7" s="8"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="6"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="F8" s="8"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="6"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2">
-        <v>0.7</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>0.7</v>
-      </c>
+      <c r="F9" s="8"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="6"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="6"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="6"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="10"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
